--- a/Setup/DATA_ONBORAD (1).xlsx
+++ b/Setup/DATA_ONBORAD (1).xlsx
@@ -583,7 +583,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>BT2023110800014</t>
+          <t>BT2023112200001</t>
         </is>
       </c>
     </row>
